--- a/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
+++ b/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="19200" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
+    <sheet name="no of tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>ADFD+</t>
   </si>
@@ -89,12 +91,84 @@
   <si>
     <t>series 2</t>
   </si>
+  <si>
+    <t>Point failure Domain One Dim</t>
+  </si>
+  <si>
+    <t>Block failure Domain One Dim</t>
+  </si>
+  <si>
+    <t>Strip Filure Domain One Dim</t>
+  </si>
+  <si>
+    <t>Point failure Domain Two Dim</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Series 1</t>
+  </si>
+  <si>
+    <t>Series 2</t>
+  </si>
+  <si>
+    <t>Series 3</t>
+  </si>
+  <si>
+    <t>Series 4</t>
+  </si>
+  <si>
+    <t>Series 5</t>
+  </si>
+  <si>
+    <t>ADFD+ one-dim point</t>
+  </si>
+  <si>
+    <t>ADFD+ one-dim block</t>
+  </si>
+  <si>
+    <t>ADFD+ one-dim Strip</t>
+  </si>
+  <si>
+    <t>Randoop one-dim point</t>
+  </si>
+  <si>
+    <t>Randoop one-dim block</t>
+  </si>
+  <si>
+    <t>Randoop one-dim strip</t>
+  </si>
+  <si>
+    <t>ADFD+ two-dim point</t>
+  </si>
+  <si>
+    <t>Randoop two-dim point</t>
+  </si>
+  <si>
+    <t>ADFD+ two-dim block</t>
+  </si>
+  <si>
+    <t>Randoop two-dim block</t>
+  </si>
+  <si>
+    <t>ADFD+ two-dim Strip</t>
+  </si>
+  <si>
+    <t>Randoop two-dim strip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +188,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,8 +228,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,16 +323,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -256,6 +481,60 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -288,6 +567,60 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="806636968"/>
-        <c:axId val="806638376"/>
+        <c:axId val="599587944"/>
+        <c:axId val="599591192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="806636968"/>
+        <c:axId val="599587944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="806638376"/>
+        <c:crossAx val="599591192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="806638376"/>
+        <c:axId val="599591192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="806636968"/>
+        <c:crossAx val="599587944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -883,11 +1216,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="815362200"/>
-        <c:axId val="815736152"/>
+        <c:axId val="599676024"/>
+        <c:axId val="599679224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="815362200"/>
+        <c:axId val="599676024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="815736152"/>
+        <c:crossAx val="599679224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="815736152"/>
+        <c:axId val="599679224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="815362200"/>
+        <c:crossAx val="599676024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,11 +1534,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="829115224"/>
-        <c:axId val="829102040"/>
+        <c:axId val="599715864"/>
+        <c:axId val="599719064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="829115224"/>
+        <c:axId val="599715864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="829102040"/>
+        <c:crossAx val="599719064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="829102040"/>
+        <c:axId val="599719064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="829115224"/>
+        <c:crossAx val="599715864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,11 +1842,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="819776776"/>
-        <c:axId val="819765064"/>
+        <c:axId val="599756456"/>
+        <c:axId val="599759656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="819776776"/>
+        <c:axId val="599756456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="819765064"/>
+        <c:crossAx val="599759656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="819765064"/>
+        <c:axId val="599759656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="819776776"/>
+        <c:crossAx val="599756456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,11 +2150,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="819902888"/>
-        <c:axId val="839379752"/>
+        <c:axId val="598804024"/>
+        <c:axId val="598800808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="819902888"/>
+        <c:axId val="598804024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="839379752"/>
+        <c:crossAx val="598800808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="839379752"/>
+        <c:axId val="598800808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +2181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="819902888"/>
+        <c:crossAx val="598804024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2125,11 +2458,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="833216424"/>
-        <c:axId val="848618632"/>
+        <c:axId val="598762984"/>
+        <c:axId val="598759768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="833216424"/>
+        <c:axId val="598762984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="848618632"/>
+        <c:crossAx val="598759768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="848618632"/>
+        <c:axId val="598759768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2489,1241 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="833216424"/>
+        <c:crossAx val="598762984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$40:$O$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100.0"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$41:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>time!$D$44:$O$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.25</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>14.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$43:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="601245896"/>
+        <c:axId val="601248056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="601245896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="601248056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="601248056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="601245896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no of tests'!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="10.0"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no of tests'!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no of tests'!$D$40:$O$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2121.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8598.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1418.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6065.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1031.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6184.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3121.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12619.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11638.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1874.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11427.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no of tests'!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100.0"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no of tests'!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no of tests'!$D$41:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2964.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2299.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1769.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2991.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1612.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2389.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2910.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2389.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2737.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2389.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2389.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no of tests'!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no of tests'!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no of tests'!$D$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>394.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>833.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1241.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>816.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>816.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>816.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>816.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no of tests'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Series 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'no of tests'!$D$44:$O$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1200.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>971.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1252.75</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1400.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1585.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>984.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1555.25</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>984.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1816.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>984.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1575.75</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>984.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no of tests'!$D$39:$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>ADFD+ one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Randoop one-dim point</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADFD+ one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Randoop one-dim block</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADFD+ one-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Randoop one-dim strip</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ADFD+ two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Randoop two-dim point</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ADFD+ two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Randoop two-dim block</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ADFD+ two-dim Strip</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Randoop two-dim strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no of tests'!$D$43:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>781.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>818.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>595.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>483.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1042.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>781.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>430.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>822.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="683205064"/>
+        <c:axId val="683333288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="683205064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="683333288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="683333288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="683205064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2350,6 +3917,76 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1493520</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Time taken to find failures"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2682,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P37" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40:U44"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2692,30 +4329,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:27">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="U1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="4:27">
       <c r="D2" s="1" t="s">
@@ -2742,8 +4379,8 @@
       <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,15 +4413,15 @@
       <c r="M3">
         <v>74</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>1450</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>15868</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
         <v>1</v>
       </c>
       <c r="U3">
@@ -2816,15 +4453,15 @@
       <c r="M4">
         <v>67</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>4817</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>15750</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
       <c r="U4">
@@ -2856,15 +4493,15 @@
       <c r="M5">
         <v>90</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>6632</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>14809</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
         <v>2</v>
       </c>
       <c r="U5">
@@ -2896,15 +4533,15 @@
       <c r="M6">
         <v>67</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>3674</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>14864</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
         <v>4</v>
       </c>
       <c r="U6">
@@ -2936,15 +4573,15 @@
       <c r="M7">
         <v>89</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>3031</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>14896</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
         <v>3</v>
       </c>
       <c r="U7">
@@ -2976,15 +4613,15 @@
       <c r="M8">
         <v>84</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>4741</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>15821</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
         <v>2</v>
       </c>
       <c r="U8">
@@ -3016,15 +4653,15 @@
       <c r="M9">
         <v>81</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>3969</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>13273</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
         <v>2</v>
       </c>
       <c r="U9">
@@ -3056,15 +4693,15 @@
       <c r="M10">
         <v>70</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>4362</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>14300</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
         <v>3</v>
       </c>
       <c r="U10">
@@ -3096,15 +4733,15 @@
       <c r="M11">
         <v>85</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>5817</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>14858</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
         <v>2</v>
       </c>
       <c r="U11">
@@ -3136,15 +4773,15 @@
       <c r="M12">
         <v>82</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>16500</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
         <v>1</v>
       </c>
       <c r="U12">
@@ -3176,15 +4813,15 @@
       <c r="M13">
         <v>65</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>2418</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>15251</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
         <v>2</v>
       </c>
       <c r="U13">
@@ -3216,15 +4853,15 @@
       <c r="M14">
         <v>95</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>4829</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>15719</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
         <v>4</v>
       </c>
       <c r="U14">
@@ -3256,15 +4893,15 @@
       <c r="M15">
         <v>81</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>3341</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>15509</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3">
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
         <v>1</v>
       </c>
       <c r="U15">
@@ -3296,15 +4933,15 @@
       <c r="M16">
         <v>73</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>4619</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>12440</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
         <v>2</v>
       </c>
       <c r="U16">
@@ -3336,15 +4973,15 @@
       <c r="M17">
         <v>80</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>4360</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>13838</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3">
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
         <v>3</v>
       </c>
       <c r="U17">
@@ -3376,15 +5013,15 @@
       <c r="M18">
         <v>84</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>5662</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>15249</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
         <v>2</v>
       </c>
       <c r="U18">
@@ -3416,15 +5053,15 @@
       <c r="M19">
         <v>72</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>6171</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <v>16631</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
         <v>1</v>
       </c>
       <c r="U19">
@@ -3456,15 +5093,15 @@
       <c r="M20">
         <v>62</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>4130</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>15506</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
         <v>2</v>
       </c>
       <c r="U20">
@@ -3496,15 +5133,15 @@
       <c r="M21">
         <v>83</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>4768</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>13938</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3">
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
         <v>2</v>
       </c>
       <c r="U21">
@@ -3536,15 +5173,15 @@
       <c r="M22">
         <v>98</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>7406</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <v>14830</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
         <v>3</v>
       </c>
       <c r="U22">
@@ -3576,15 +5213,15 @@
       <c r="M23">
         <v>61</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>5862</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>13030</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
         <v>2</v>
       </c>
       <c r="U23">
@@ -3616,15 +5253,15 @@
       <c r="M24">
         <v>72</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>4378</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="2">
         <v>16651</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3">
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
         <v>2</v>
       </c>
       <c r="U24">
@@ -3656,15 +5293,15 @@
       <c r="M25">
         <v>76</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <v>4800</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="2">
         <v>11638</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
         <v>1</v>
       </c>
       <c r="U25">
@@ -3696,15 +5333,15 @@
       <c r="M26">
         <v>79</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <v>5374</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2">
         <v>14440</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2">
         <v>1</v>
       </c>
       <c r="U26">
@@ -3736,15 +5373,15 @@
       <c r="M27">
         <v>69</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>6541</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <v>14820</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2">
         <v>4</v>
       </c>
       <c r="U27">
@@ -3776,15 +5413,15 @@
       <c r="M28">
         <v>83</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <v>6790</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="2">
         <v>12740</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2">
         <v>2</v>
       </c>
       <c r="U28">
@@ -3816,15 +5453,15 @@
       <c r="M29">
         <v>67</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <v>5062</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="2">
         <v>16140</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
         <v>3</v>
       </c>
       <c r="U29">
@@ -3856,15 +5493,15 @@
       <c r="M30">
         <v>72</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <v>5000</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="2">
         <v>13421</v>
       </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
         <v>2</v>
       </c>
       <c r="U30">
@@ -3896,15 +5533,15 @@
       <c r="M31">
         <v>88</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="2">
         <v>2418</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="2">
         <v>14296</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
         <v>2</v>
       </c>
       <c r="U31">
@@ -3936,15 +5573,15 @@
       <c r="M32">
         <v>85</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>4829</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="2">
         <v>14710</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2">
         <v>2</v>
       </c>
       <c r="U32">
@@ -3970,6 +5607,12 @@
       <c r="I33" t="s">
         <v>1</v>
       </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>84</v>
+      </c>
       <c r="Z33" t="s">
         <v>0</v>
       </c>
@@ -3992,41 +5635,41 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <f t="shared" ref="F34:I34" si="0">MIN(H3:H32)</f>
+        <f t="shared" ref="H34:I34" si="0">MIN(H3:H32)</f>
         <v>3121</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="0"/>
         <v>12619</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="1">
-        <f t="shared" ref="J34:N34" si="1">MIN(L3:L32)</f>
+        <f>MIN(L3:L33)</f>
         <v>2</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="1"/>
+        <f>MIN(M3:M33)</f>
         <v>61</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1">
-        <f t="shared" ref="N34:U34" si="2">MIN(P3:P32)</f>
+        <f t="shared" ref="P34:U34" si="1">MIN(P3:P32)</f>
         <v>1450</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11638</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="V34" s="1"/>
@@ -4034,11 +5677,11 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1">
-        <f t="shared" ref="V34:AA34" si="3">MIN(Z3:Z32)</f>
+        <f t="shared" ref="Z34:AA34" si="2">MIN(Z3:Z32)</f>
         <v>906</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11427</v>
       </c>
     </row>
@@ -4057,41 +5700,41 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
-        <f t="shared" ref="F35:I35" si="4">QUARTILE(H3:H32,1)</f>
+        <f t="shared" ref="H35:I35" si="3">QUARTILE(H3:H32,1)</f>
         <v>6031.5</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>15008.5</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="1">
+        <f t="shared" ref="L35:M35" si="4">QUARTILE(L3:L32,1)</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
         <f t="shared" si="4"/>
-        <v>15008.5</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="1">
-        <f t="shared" ref="J35:N35" si="5">QUARTILE(L3:L32,1)</f>
-        <v>3</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="5"/>
         <v>70.5</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1">
-        <f t="shared" ref="N35:U35" si="6">QUARTILE(P3:P32,1)</f>
+        <f t="shared" ref="P35:U35" si="5">QUARTILE(P3:P32,1)</f>
         <v>4187.5</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14027.5</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="V35" s="1"/>
@@ -4099,11 +5742,11 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1">
-        <f t="shared" ref="V35:AA35" si="7">QUARTILE(Z3:Z32,1)</f>
+        <f t="shared" ref="Z35:AA35" si="6">QUARTILE(Z3:Z32,1)</f>
         <v>3244</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13816.5</v>
       </c>
     </row>
@@ -4122,41 +5765,41 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
-        <f t="shared" ref="F36:I36" si="8">MEDIAN(H3:H32)</f>
+        <f t="shared" ref="H36:I36" si="7">MEDIAN(H3:H32)</f>
         <v>6479.5</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="7"/>
+        <v>15825</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="1">
+        <f t="shared" ref="L36:M36" si="8">MEDIAN(L3:L32)</f>
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
         <f t="shared" si="8"/>
-        <v>15825</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="1">
-        <f t="shared" ref="J36:N36" si="9">MEDIAN(L3:L32)</f>
-        <v>3</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="9"/>
         <v>79.5</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1">
-        <f t="shared" ref="N36:U36" si="10">MEDIAN(P3:P32)</f>
+        <f t="shared" ref="P36:U36" si="9">MEDIAN(P3:P32)</f>
         <v>4808.5</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14844</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>72.5</v>
       </c>
       <c r="V36" s="1"/>
@@ -4164,11 +5807,11 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1">
-        <f t="shared" ref="V36:AA36" si="11">MEDIAN(Z3:Z32)</f>
+        <f t="shared" ref="Z36:AA36" si="10">MEDIAN(Z3:Z32)</f>
         <v>4240</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>14633</v>
       </c>
     </row>
@@ -4187,41 +5830,41 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <f t="shared" ref="F37:I37" si="12">QUARTILE(H3:H32,3)</f>
+        <f t="shared" ref="H37:I37" si="11">QUARTILE(H3:H32,3)</f>
         <v>7521.75</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="11"/>
+        <v>16647.5</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="1">
+        <f t="shared" ref="L37:M37" si="12">QUARTILE(L3:L32,3)</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="1">
         <f t="shared" si="12"/>
-        <v>16647.5</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="1">
-        <f t="shared" ref="J37:N37" si="13">QUARTILE(L3:L32,3)</f>
-        <v>4</v>
-      </c>
-      <c r="M37" s="1">
-        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <f t="shared" ref="N37:U37" si="14">QUARTILE(P3:P32,3)</f>
+        <f t="shared" ref="P37:U37" si="13">QUARTILE(P3:P32,3)</f>
         <v>5590</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>15666.5</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="V37" s="1"/>
@@ -4229,11 +5872,11 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1">
-        <f t="shared" ref="V37:AA37" si="15">QUARTILE(Z3:Z32,3)</f>
+        <f t="shared" ref="Z37:AA37" si="14">QUARTILE(Z3:Z32,3)</f>
         <v>4670.25</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>15455.5</v>
       </c>
     </row>
@@ -4252,41 +5895,41 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
-        <f t="shared" ref="F38:I38" si="16">MAX(H3:H32)</f>
+        <f t="shared" ref="H38:I38" si="15">MAX(H3:H32)</f>
         <v>9077</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="15"/>
+        <v>17632</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1">
+        <f t="shared" ref="L38:M38" si="16">MAX(L3:L32)</f>
+        <v>5</v>
+      </c>
+      <c r="M38" s="1">
         <f t="shared" si="16"/>
-        <v>17632</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="1">
-        <f t="shared" ref="J38:N38" si="17">MAX(L3:L32)</f>
-        <v>5</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" ref="N38:U38" si="18">MAX(P3:P32)</f>
+        <f t="shared" ref="P38:U38" si="17">MAX(P3:P32)</f>
         <v>7406</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>16651</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="V38" s="1"/>
@@ -4294,11 +5937,11 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1">
-        <f t="shared" ref="V38:AA38" si="19">MAX(Z3:Z32)</f>
+        <f t="shared" ref="Z38:AA38" si="18">MAX(Z3:Z32)</f>
         <v>6246</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>16440</v>
       </c>
     </row>
@@ -4357,26 +6000,26 @@
         <v>7</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="F41:I41" si="20">H34</f>
+        <f t="shared" ref="H41:I41" si="19">H34</f>
         <v>3121</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12619</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" ref="J41:M41" si="21">J34</f>
+        <f t="shared" ref="J41:M41" si="20">J34</f>
         <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>7</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
       <c r="N41" s="1"/>
@@ -4384,11 +6027,11 @@
         <v>17</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" ref="N41:U41" si="22">P34</f>
+        <f t="shared" ref="P41:U41" si="21">P34</f>
         <v>1450</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>11638</v>
       </c>
       <c r="R41" s="1"/>
@@ -4396,11 +6039,11 @@
         <v>7</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="V41" s="1"/>
@@ -4410,11 +6053,11 @@
         <v>7</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" ref="V41:AA41" si="23">Z34</f>
+        <f t="shared" ref="Z41:AA41" si="22">Z34</f>
         <v>906</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>11427</v>
       </c>
     </row>
@@ -4423,11 +6066,11 @@
         <v>8</v>
       </c>
       <c r="D42" s="1">
-        <f>D35-D34</f>
+        <f t="shared" ref="D42:E45" si="23">D35-D34</f>
         <v>1.25</v>
       </c>
       <c r="E42" s="1">
-        <f>E35-E34</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="F42" s="1"/>
@@ -4435,7 +6078,7 @@
         <v>8</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="F42:I42" si="24">H35-H34</f>
+        <f t="shared" ref="H42:I42" si="24">H35-H34</f>
         <v>2910.5</v>
       </c>
       <c r="I42" s="1">
@@ -4462,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" ref="N42:U42" si="26">P35-P34</f>
+        <f t="shared" ref="P42:U42" si="26">P35-P34</f>
         <v>2737.5</v>
       </c>
       <c r="Q42" s="1">
@@ -4488,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" ref="V42:AA42" si="27">Z35-Z34</f>
+        <f t="shared" ref="Z42:AA42" si="27">Z35-Z34</f>
         <v>2338</v>
       </c>
       <c r="AA42" s="1">
@@ -4505,7 +6148,7 @@
         <v>1.25</v>
       </c>
       <c r="E43" s="1">
-        <f>E36-E35</f>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
       <c r="F43" s="1"/>
@@ -4513,7 +6156,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ref="F43:I43" si="28">H36-H35</f>
+        <f t="shared" ref="H43:I43" si="28">H36-H35</f>
         <v>448</v>
       </c>
       <c r="I43" s="1">
@@ -4540,7 +6183,7 @@
         <v>18</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" ref="N43:U43" si="30">P36-P35</f>
+        <f t="shared" ref="P43:U43" si="30">P36-P35</f>
         <v>621</v>
       </c>
       <c r="Q43" s="1">
@@ -4566,7 +6209,7 @@
         <v>18</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" ref="V43:AA43" si="31">Z36-Z35</f>
+        <f t="shared" ref="Z43:AA43" si="31">Z36-Z35</f>
         <v>996</v>
       </c>
       <c r="AA43" s="1">
@@ -4579,11 +6222,11 @@
         <v>10</v>
       </c>
       <c r="D44" s="1">
-        <f>D37-D36</f>
+        <f t="shared" si="23"/>
         <v>1.25</v>
       </c>
       <c r="E44" s="1">
-        <f>E37-E36</f>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
       <c r="F44" s="1"/>
@@ -4591,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="F44:I44" si="32">H37-H36</f>
+        <f t="shared" ref="H44:I44" si="32">H37-H36</f>
         <v>1042.25</v>
       </c>
       <c r="I44" s="1">
@@ -4618,7 +6261,7 @@
         <v>19</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" ref="N44:U44" si="34">P37-P36</f>
+        <f t="shared" ref="P44:U44" si="34">P37-P36</f>
         <v>781.5</v>
       </c>
       <c r="Q44" s="1">
@@ -4644,7 +6287,7 @@
         <v>19</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" ref="V44:AA44" si="35">Z37-Z36</f>
+        <f t="shared" ref="Z44:AA44" si="35">Z37-Z36</f>
         <v>430.25</v>
       </c>
       <c r="AA44" s="1">
@@ -4657,11 +6300,11 @@
         <v>11</v>
       </c>
       <c r="D45" s="1">
-        <f>D38-D37</f>
+        <f t="shared" si="23"/>
         <v>3.25</v>
       </c>
       <c r="E45" s="1">
-        <f>E38-E37</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="F45" s="1"/>
@@ -4669,7 +6312,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="F45:I45" si="36">H38-H37</f>
+        <f t="shared" ref="H45:I45" si="36">H38-H37</f>
         <v>1555.25</v>
       </c>
       <c r="I45" s="1">
@@ -4696,7 +6339,7 @@
         <v>20</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" ref="N45:U45" si="38">P38-P37</f>
+        <f t="shared" ref="P45:U45" si="38">P38-P37</f>
         <v>1816</v>
       </c>
       <c r="Q45" s="1">
@@ -4722,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" ref="V45:AA45" si="39">Z38-Z37</f>
+        <f t="shared" ref="Z45:AA45" si="39">Z38-Z37</f>
         <v>1575.75</v>
       </c>
       <c r="AA45" s="1">
@@ -4749,4 +6392,3648 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>182</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>170</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>152</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>80</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>74</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>177</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>157</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>148</v>
+      </c>
+      <c r="J4" s="4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>90</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>67</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>175</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>180</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>168</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>82</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>90</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>178</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>145</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>82</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>67</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>192</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>179</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>167</v>
+      </c>
+      <c r="J7" s="4">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
+        <v>86</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>89</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>173</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>174</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>145</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>84</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>166</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>171</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>159</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>77</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>81</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>175</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>160</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>148</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>92</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>70</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>180</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>175</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>163</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>90</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>85</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>178</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>172</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>160</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>87</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>82</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>186</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>155</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>176</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>84</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>65</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>181</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>185</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>173</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7</v>
+      </c>
+      <c r="K14" s="4">
+        <v>79</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>95</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>170</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>171</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>159</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>83</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
+        <v>81</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>183</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>163</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>151</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8</v>
+      </c>
+      <c r="K16" s="4">
+        <v>81</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>73</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>190</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>171</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>158</v>
+      </c>
+      <c r="J17" s="4">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>82</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3</v>
+      </c>
+      <c r="M17" s="4">
+        <v>80</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>184</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>174</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>162</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>80</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>84</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>173</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>162</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>150</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4">
+        <v>81</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>72</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>185</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>164</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>140</v>
+      </c>
+      <c r="J20" s="4">
+        <v>7</v>
+      </c>
+      <c r="K20" s="4">
+        <v>78</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
+      <c r="M20" s="4">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>171</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>173</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>161</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
+        <v>93</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>83</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>172</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>175</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>144</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>86</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3</v>
+      </c>
+      <c r="M22" s="4">
+        <v>98</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>177</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>161</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>139</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7</v>
+      </c>
+      <c r="K23" s="4">
+        <v>85</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>61</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>180</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>162</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>150</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
+      <c r="K24" s="4">
+        <v>82</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>72</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>174</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>166</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>154</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>74</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4</v>
+      </c>
+      <c r="M25" s="4">
+        <v>76</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>186</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>169</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>157</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
+        <v>81</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
+        <v>79</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="D27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>191</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>159</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>147</v>
+      </c>
+      <c r="J27" s="4">
+        <v>7</v>
+      </c>
+      <c r="K27" s="4">
+        <v>83</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>69</v>
+      </c>
+      <c r="N27" s="4">
+        <v>4</v>
+      </c>
+      <c r="O27" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>168</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>173</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>161</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>84</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4">
+        <v>83</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>174</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>157</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>162</v>
+      </c>
+      <c r="J29" s="4">
+        <v>8</v>
+      </c>
+      <c r="K29" s="4">
+        <v>85</v>
+      </c>
+      <c r="L29" s="4">
+        <v>4</v>
+      </c>
+      <c r="M29" s="4">
+        <v>67</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>178</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>162</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>150</v>
+      </c>
+      <c r="J30" s="4">
+        <v>6</v>
+      </c>
+      <c r="K30" s="4">
+        <v>86</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4">
+        <v>72</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>181</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>157</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>166</v>
+      </c>
+      <c r="J31" s="4">
+        <v>7</v>
+      </c>
+      <c r="K31" s="4">
+        <v>89</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4">
+        <v>88</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4">
+        <v>187</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>188</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>163</v>
+      </c>
+      <c r="J32" s="4">
+        <v>8</v>
+      </c>
+      <c r="K32" s="4">
+        <v>81</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3</v>
+      </c>
+      <c r="M32" s="4">
+        <v>85</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <f>MIN(D3:D32)</f>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:O34" si="0">MIN(E3:E32)</f>
+        <v>166</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>QUARTILE(D3:D32,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:O35" si="1">QUARTILE(E3:E32,1)</f>
+        <v>174</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <f>MEDIAN(D3:D32)</f>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:O36" si="2">MEDIAN(E3:E32)</f>
+        <v>179</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>170.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>157.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f>QUARTILE(D3:D32,3)</f>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:O37" si="3">QUARTILE(E3:E32,3)</f>
+        <v>183.75</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>7.75</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <f>MAX(D3:D32)</f>
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:O38" si="4">MAX(E3:E32)</f>
+        <v>192</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" s="1" customFormat="1">
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <f>MIN(D3:D32)</f>
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:O40" si="5">MIN(E3:E32)</f>
+        <v>166</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <f>D35-D34</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:O41" si="6">E35-E34</f>
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <f>D36-D35</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:O42" si="7">E36-E35</f>
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <f>D37-D36</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:O43" si="8">E37-E36</f>
+        <v>4.75</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <f>D38-D37</f>
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:O44" si="9">E38-E37</f>
+        <v>8.25</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="9"/>
+        <v>3.25</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="15" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="D3" s="4">
+        <v>7375</v>
+      </c>
+      <c r="E3" s="8">
+        <v>11700</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3768</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9935</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1906</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10414</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9077</v>
+      </c>
+      <c r="K3" s="4">
+        <v>15811</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1450</v>
+      </c>
+      <c r="M3" s="7">
+        <v>15868</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2906</v>
+      </c>
+      <c r="O3" s="4">
+        <v>15657</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="D4" s="4">
+        <v>6592</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10170</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3817</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8695</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3273</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10296</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7533</v>
+      </c>
+      <c r="K4" s="4">
+        <v>14011</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4817</v>
+      </c>
+      <c r="M4" s="7">
+        <v>15750</v>
+      </c>
+      <c r="N4" s="4">
+        <v>4273</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15539</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="D5" s="4">
+        <v>5421</v>
+      </c>
+      <c r="E5" s="9">
+        <v>13521</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5632</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10340</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5088</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9355</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6049</v>
+      </c>
+      <c r="K5" s="4">
+        <v>17632</v>
+      </c>
+      <c r="L5" s="7">
+        <v>6632</v>
+      </c>
+      <c r="M5" s="7">
+        <v>14809</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6088</v>
+      </c>
+      <c r="O5" s="4">
+        <v>14598</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="D6" s="4">
+        <v>5471</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9317</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2674</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10395</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2130</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9410</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6471</v>
+      </c>
+      <c r="K6" s="4">
+        <v>12619</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3674</v>
+      </c>
+      <c r="M6" s="7">
+        <v>14864</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3130</v>
+      </c>
+      <c r="O6" s="4">
+        <v>14653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="D7" s="4">
+        <v>6045</v>
+      </c>
+      <c r="E7" s="9">
+        <v>11310</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2031</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10427</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1487</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9442</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7045</v>
+      </c>
+      <c r="K7" s="4">
+        <v>15421</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3031</v>
+      </c>
+      <c r="M7" s="7">
+        <v>14896</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2487</v>
+      </c>
+      <c r="O7" s="4">
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="D8" s="4">
+        <v>7212</v>
+      </c>
+      <c r="E8" s="9">
+        <v>11690</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3741</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11352</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3197</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10367</v>
+      </c>
+      <c r="J8" s="4">
+        <v>8212</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15801</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4741</v>
+      </c>
+      <c r="M8" s="7">
+        <v>15821</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4197</v>
+      </c>
+      <c r="O8" s="4">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9">
+        <v>5243</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7461</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9610</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2969</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8804</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2536</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7819</v>
+      </c>
+      <c r="J9" s="4">
+        <v>8461</v>
+      </c>
+      <c r="K9" s="4">
+        <v>13721</v>
+      </c>
+      <c r="L9" s="7">
+        <v>3969</v>
+      </c>
+      <c r="M9" s="7">
+        <v>13273</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1875</v>
+      </c>
+      <c r="O9" s="4">
+        <v>13062</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="D10" s="4">
+        <v>5733</v>
+      </c>
+      <c r="E10" s="9">
+        <v>13010</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3362</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9831</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2818</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8846</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6733</v>
+      </c>
+      <c r="K10" s="4">
+        <v>17121</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4362</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14300</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3818</v>
+      </c>
+      <c r="O10" s="4">
+        <v>14089</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="D11" s="4">
+        <v>5455</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10291</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4817</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10389</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3721</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9404</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6455</v>
+      </c>
+      <c r="K11" s="4">
+        <v>14402</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5817</v>
+      </c>
+      <c r="M11" s="7">
+        <v>14858</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4721</v>
+      </c>
+      <c r="O11" s="4">
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="D12" s="4">
+        <v>6871</v>
+      </c>
+      <c r="E12" s="9">
+        <v>11166</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3390</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10256</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3456</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11046</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7871</v>
+      </c>
+      <c r="K12" s="4">
+        <v>15277</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="7">
+        <v>16500</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4456</v>
+      </c>
+      <c r="O12" s="4">
+        <v>16289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="D13" s="4">
+        <v>5906</v>
+      </c>
+      <c r="E13" s="9">
+        <v>11580</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1418</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10782</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2875</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9797</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7901</v>
+      </c>
+      <c r="K13" s="4">
+        <v>15691</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2418</v>
+      </c>
+      <c r="M13" s="7">
+        <v>15251</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1874</v>
+      </c>
+      <c r="O13" s="4">
+        <v>15040</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="D14" s="4">
+        <v>4653</v>
+      </c>
+      <c r="E14" s="9">
+        <v>13370</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3829</v>
+      </c>
+      <c r="G14" s="7">
+        <v>11250</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3285</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10265</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5012</v>
+      </c>
+      <c r="K14" s="4">
+        <v>17481</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4829</v>
+      </c>
+      <c r="M14" s="7">
+        <v>15719</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4285</v>
+      </c>
+      <c r="O14" s="4">
+        <v>15508</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="D15" s="4">
+        <v>5290</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12121</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2341</v>
+      </c>
+      <c r="G15" s="7">
+        <v>11040</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1797</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10055</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6290</v>
+      </c>
+      <c r="K15" s="4">
+        <v>16232</v>
+      </c>
+      <c r="L15" s="7">
+        <v>3341</v>
+      </c>
+      <c r="M15" s="7">
+        <v>15509</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2797</v>
+      </c>
+      <c r="O15" s="4">
+        <v>15298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="D16" s="4">
+        <v>5031</v>
+      </c>
+      <c r="E16" s="9">
+        <v>12589</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3619</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7971</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3075</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6986</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6031</v>
+      </c>
+      <c r="K16" s="4">
+        <v>16700</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4619</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12440</v>
+      </c>
+      <c r="N16" s="4">
+        <v>4075</v>
+      </c>
+      <c r="O16" s="4">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" s="4">
+        <v>6333</v>
+      </c>
+      <c r="E17" s="9">
+        <v>12379</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3360</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9369</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2816</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8384</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7333</v>
+      </c>
+      <c r="K17" s="4">
+        <v>16490</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4360</v>
+      </c>
+      <c r="M17" s="7">
+        <v>13838</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3816</v>
+      </c>
+      <c r="O17" s="4">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="4">
+        <v>6842</v>
+      </c>
+      <c r="E18" s="9">
+        <v>8598</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4662</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10780</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3288</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9795</v>
+      </c>
+      <c r="J18" s="4">
+        <v>7842</v>
+      </c>
+      <c r="K18" s="4">
+        <v>13421</v>
+      </c>
+      <c r="L18" s="7">
+        <v>5662</v>
+      </c>
+      <c r="M18" s="7">
+        <v>15249</v>
+      </c>
+      <c r="N18" s="4">
+        <v>4288</v>
+      </c>
+      <c r="O18" s="4">
+        <v>15038</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" s="4">
+        <v>5241</v>
+      </c>
+      <c r="E19" s="9">
+        <v>12431</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5171</v>
+      </c>
+      <c r="G19" s="7">
+        <v>11652</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4627</v>
+      </c>
+      <c r="I19" s="4">
+        <v>11177</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5801</v>
+      </c>
+      <c r="K19" s="4">
+        <v>14819</v>
+      </c>
+      <c r="L19" s="7">
+        <v>6171</v>
+      </c>
+      <c r="M19" s="7">
+        <v>16631</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5627</v>
+      </c>
+      <c r="O19" s="4">
+        <v>16420</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" s="4">
+        <v>5439</v>
+      </c>
+      <c r="E20" s="9">
+        <v>12119</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3130</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6065</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2586</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10052</v>
+      </c>
+      <c r="J20" s="4">
+        <v>6439</v>
+      </c>
+      <c r="K20" s="4">
+        <v>16230</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4130</v>
+      </c>
+      <c r="M20" s="7">
+        <v>15506</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3586</v>
+      </c>
+      <c r="O20" s="4">
+        <v>15295</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" s="4">
+        <v>2121</v>
+      </c>
+      <c r="E21" s="9">
+        <v>13501</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1475</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9469</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3224</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8484</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3121</v>
+      </c>
+      <c r="K21" s="4">
+        <v>17612</v>
+      </c>
+      <c r="L21" s="7">
+        <v>4768</v>
+      </c>
+      <c r="M21" s="7">
+        <v>13938</v>
+      </c>
+      <c r="N21" s="4">
+        <v>4224</v>
+      </c>
+      <c r="O21" s="4">
+        <v>13727</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" s="4">
+        <v>5488</v>
+      </c>
+      <c r="E22" s="9">
+        <v>12376</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4901</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10361</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1031</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9376</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6488</v>
+      </c>
+      <c r="K22" s="4">
+        <v>16487</v>
+      </c>
+      <c r="L22" s="7">
+        <v>7406</v>
+      </c>
+      <c r="M22" s="7">
+        <v>14830</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2031</v>
+      </c>
+      <c r="O22" s="4">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" s="4">
+        <v>7303</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10808</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4862</v>
+      </c>
+      <c r="G23" s="7">
+        <v>8561</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3369</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7576</v>
+      </c>
+      <c r="J23" s="4">
+        <v>8303</v>
+      </c>
+      <c r="K23" s="4">
+        <v>14919</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5862</v>
+      </c>
+      <c r="M23" s="7">
+        <v>13030</v>
+      </c>
+      <c r="N23" s="4">
+        <v>5318</v>
+      </c>
+      <c r="O23" s="4">
+        <v>12819</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" s="4">
+        <v>4345</v>
+      </c>
+      <c r="E24" s="9">
+        <v>12738</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3378</v>
+      </c>
+      <c r="G24" s="7">
+        <v>12182</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2834</v>
+      </c>
+      <c r="I24" s="4">
+        <v>11197</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5345</v>
+      </c>
+      <c r="K24" s="4">
+        <v>16849</v>
+      </c>
+      <c r="L24" s="7">
+        <v>4378</v>
+      </c>
+      <c r="M24" s="7">
+        <v>16651</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3834</v>
+      </c>
+      <c r="O24" s="4">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" s="4">
+        <v>3702</v>
+      </c>
+      <c r="E25" s="9">
+        <v>12620</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3800</v>
+      </c>
+      <c r="G25" s="7">
+        <v>7169</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3256</v>
+      </c>
+      <c r="I25" s="4">
+        <v>6184</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4702</v>
+      </c>
+      <c r="K25" s="4">
+        <v>16731</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4800</v>
+      </c>
+      <c r="M25" s="7">
+        <v>11638</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4256</v>
+      </c>
+      <c r="O25" s="4">
+        <v>11427</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="D26" s="4">
+        <v>5412</v>
+      </c>
+      <c r="E26" s="9">
+        <v>11679</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4374</v>
+      </c>
+      <c r="G26" s="7">
+        <v>11399</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3830</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8986</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6412</v>
+      </c>
+      <c r="K26" s="4">
+        <v>15790</v>
+      </c>
+      <c r="L26" s="7">
+        <v>5374</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14440</v>
+      </c>
+      <c r="N26" s="4">
+        <v>4830</v>
+      </c>
+      <c r="O26" s="4">
+        <v>14229</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15">
+      <c r="D27" s="4">
+        <v>4640</v>
+      </c>
+      <c r="E27" s="9">
+        <v>11734</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5541</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10351</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4997</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9366</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5640</v>
+      </c>
+      <c r="K27" s="4">
+        <v>15845</v>
+      </c>
+      <c r="L27" s="7">
+        <v>6541</v>
+      </c>
+      <c r="M27" s="7">
+        <v>14820</v>
+      </c>
+      <c r="N27" s="4">
+        <v>5997</v>
+      </c>
+      <c r="O27" s="4">
+        <v>14609</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15">
+      <c r="D28" s="4">
+        <v>5033</v>
+      </c>
+      <c r="E28" s="9">
+        <v>11766</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4381</v>
+      </c>
+      <c r="G28" s="7">
+        <v>8271</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4651</v>
+      </c>
+      <c r="I28" s="4">
+        <v>7286</v>
+      </c>
+      <c r="J28" s="4">
+        <v>6033</v>
+      </c>
+      <c r="K28" s="4">
+        <v>15877</v>
+      </c>
+      <c r="L28" s="7">
+        <v>6790</v>
+      </c>
+      <c r="M28" s="7">
+        <v>12740</v>
+      </c>
+      <c r="N28" s="4">
+        <v>6246</v>
+      </c>
+      <c r="O28" s="4">
+        <v>12529</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15">
+      <c r="D29" s="4">
+        <v>5689</v>
+      </c>
+      <c r="E29" s="9">
+        <v>12691</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4062</v>
+      </c>
+      <c r="G29" s="7">
+        <v>11671</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3518</v>
+      </c>
+      <c r="I29" s="4">
+        <v>10686</v>
+      </c>
+      <c r="J29" s="4">
+        <v>7488</v>
+      </c>
+      <c r="K29" s="4">
+        <v>16802</v>
+      </c>
+      <c r="L29" s="7">
+        <v>5062</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16140</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4518</v>
+      </c>
+      <c r="O29" s="4">
+        <v>15929</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
+      <c r="D30" s="4">
+        <v>5671</v>
+      </c>
+      <c r="E30" s="9">
+        <v>10143</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8952</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3456</v>
+      </c>
+      <c r="I30" s="4">
+        <v>7967</v>
+      </c>
+      <c r="J30" s="4">
+        <v>6671</v>
+      </c>
+      <c r="K30" s="4">
+        <v>14254</v>
+      </c>
+      <c r="L30" s="7">
+        <v>5000</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13421</v>
+      </c>
+      <c r="N30" s="4">
+        <v>4456</v>
+      </c>
+      <c r="O30" s="4">
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15">
+      <c r="D31" s="4">
+        <v>3089</v>
+      </c>
+      <c r="E31" s="9">
+        <v>9932</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1418</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9827</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1233</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8842</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4089</v>
+      </c>
+      <c r="K31" s="4">
+        <v>15281</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2418</v>
+      </c>
+      <c r="M31" s="7">
+        <v>14296</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2233</v>
+      </c>
+      <c r="O31" s="4">
+        <v>14085</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15">
+      <c r="D32" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="9">
+        <v>11728</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3829</v>
+      </c>
+      <c r="G32" s="7">
+        <v>10241</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3659</v>
+      </c>
+      <c r="I32" s="4">
+        <v>9256</v>
+      </c>
+      <c r="J32" s="4">
+        <v>6500</v>
+      </c>
+      <c r="K32" s="4">
+        <v>15839</v>
+      </c>
+      <c r="L32" s="7">
+        <v>4829</v>
+      </c>
+      <c r="M32" s="7">
+        <v>14710</v>
+      </c>
+      <c r="N32" s="4">
+        <v>5189</v>
+      </c>
+      <c r="O32" s="4">
+        <v>14499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <f>MIN(D3:D32)</f>
+        <v>2121</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:O34" si="0">MIN(E3:E32)</f>
+        <v>8598</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1418</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>6065</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>6184</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>3121</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>12619</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>11638</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>1874</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>11427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>QUARTILE(D3:D32,1)</f>
+        <v>5085</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:O35" si="1">QUARTILE(E3:E32,1)</f>
+        <v>10897.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3187.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>9056.25</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>2643.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>8573.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>6031.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>15008.5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>4187.5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>14027.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>3244</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>13816.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <f>MEDIAN(D3:D32)</f>
+        <v>5479.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:O36" si="2">MEDIAN(E3:E32)</f>
+        <v>11731</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>3784</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>10298</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>3240</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>9390</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>6479.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>15825</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>4808.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>14844</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>4240</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>14633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f>QUARTILE(D3:D32,3)</f>
+        <v>6261</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:O37" si="3">QUARTILE(E3:E32,3)</f>
+        <v>12549.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>4379.25</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>10781.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>3502.5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>10212.5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>7521.75</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>16647.5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>5590</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>15666.5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>4670.25</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>15455.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <f>MAX(D3:D32)</f>
+        <v>7461</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:O38" si="4">MAX(E3:E32)</f>
+        <v>13521</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>5632</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>12182</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>5088</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>11197</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>9077</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>17632</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>7406</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>16651</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>6246</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <f>MIN(D3:D32)</f>
+        <v>2121</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:O40" si="5">MIN(E3:E32)</f>
+        <v>8598</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>1418</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>6065</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>1031</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>6184</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>3121</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>12619</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>1450</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>11638</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>1874</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>11427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <f>D35-D34</f>
+        <v>2964</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:O41" si="6">E35-E34</f>
+        <v>2299.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>1769.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>2991.25</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>1612.5</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>2389.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>2910.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>2389.5</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>2737.5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>2389.5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>1370</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>2389.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <f>D36-D35</f>
+        <v>394.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:O42" si="7">E36-E35</f>
+        <v>833.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>596.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>1241.75</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>596.5</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>816.5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>448</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>816.5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>621</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>816.5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>996</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>816.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <f>D37-D36</f>
+        <v>781.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:O43" si="8">E37-E36</f>
+        <v>818.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>595.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>483.5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>262.5</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>822.5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>1042.25</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>822.5</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>781.5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>822.5</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>430.25</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>822.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <f>D38-D37</f>
+        <v>1200</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:O44" si="9">E38-E37</f>
+        <v>971.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>1252.75</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>1400.5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>1585.5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="9"/>
+        <v>984.5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="9"/>
+        <v>1555.25</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>984.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>1816</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>984.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>1575.75</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>984.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
+++ b/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="2" r:id="rId2"/>
     <sheet name="no of tests" sheetId="3" r:id="rId3"/>
+    <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>ADFD+</t>
   </si>
@@ -57,15 +58,6 @@
   </si>
   <si>
     <t>series5</t>
-  </si>
-  <si>
-    <t>two_dim_point_time</t>
-  </si>
-  <si>
-    <t>two dim point no of calls</t>
-  </si>
-  <si>
-    <t>Two dim block time</t>
   </si>
   <si>
     <t>Two dim block no of calls</t>
@@ -163,11 +155,80 @@
   <si>
     <t>Randoop two-dim strip</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pro1</t>
+  </si>
+  <si>
+    <t>Pro2</t>
+  </si>
+  <si>
+    <t>Pro3</t>
+  </si>
+  <si>
+    <t>Pro4</t>
+  </si>
+  <si>
+    <t>Pro5</t>
+  </si>
+  <si>
+    <t>Pro6</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Strip</t>
+  </si>
+  <si>
+    <t>Average time taken by Randoop</t>
+  </si>
+  <si>
+    <t>Average Test cases by Randoop</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>one_dim_point_time</t>
+  </si>
+  <si>
+    <t>one dim point no of calls</t>
+  </si>
+  <si>
+    <t>one dim block time</t>
+  </si>
+  <si>
+    <t>Average test cases by ADFD+</t>
+  </si>
+  <si>
+    <t>Average time taken by ADFD+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -257,7 +318,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,24 +492,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -535,6 +608,11 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -621,6 +699,11 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,11 +981,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="599587944"/>
-        <c:axId val="599591192"/>
+        <c:axId val="601307512"/>
+        <c:axId val="138156504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599587944"/>
+        <c:axId val="601307512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599591192"/>
+        <c:crossAx val="138156504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599591192"/>
+        <c:axId val="138156504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,11 +1012,317 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599587944"/>
+        <c:crossAx val="601307512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average test cases by ADFD+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Results!$I$19:$K$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pro1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pro2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pro3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pro4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pro5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pro6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$N$19:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5545.466666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3658.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100.633333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6578.266666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4741.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4047.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Test cases by Randoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Results!$I$19:$K$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pro1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pro2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pro3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pro4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pro5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pro6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$O$19:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11622.93333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9926.233333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9270.533333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15705.53333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14724.53333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14513.53333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="734380472"/>
+        <c:axId val="724548664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="734380472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="724548664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724548664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="734380472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1216,11 +1605,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="599676024"/>
-        <c:axId val="599679224"/>
+        <c:axId val="720425368"/>
+        <c:axId val="601489240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599676024"/>
+        <c:axId val="720425368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599679224"/>
+        <c:crossAx val="601489240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599679224"/>
+        <c:axId val="601489240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599676024"/>
+        <c:crossAx val="720425368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1923,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="599715864"/>
-        <c:axId val="599719064"/>
+        <c:axId val="601664392"/>
+        <c:axId val="601666056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599715864"/>
+        <c:axId val="601664392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599719064"/>
+        <c:crossAx val="601666056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599719064"/>
+        <c:axId val="601666056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599715864"/>
+        <c:crossAx val="601664392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,11 +2231,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="599756456"/>
-        <c:axId val="599759656"/>
+        <c:axId val="601390296"/>
+        <c:axId val="601338248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599756456"/>
+        <c:axId val="601390296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +2244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599759656"/>
+        <c:crossAx val="601338248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +2252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599759656"/>
+        <c:axId val="601338248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +2262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599756456"/>
+        <c:crossAx val="601390296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2150,11 +2539,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="598804024"/>
-        <c:axId val="598800808"/>
+        <c:axId val="720480840"/>
+        <c:axId val="720464456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="598804024"/>
+        <c:axId val="720480840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598800808"/>
+        <c:crossAx val="720464456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598800808"/>
+        <c:axId val="720464456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598804024"/>
+        <c:crossAx val="720480840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2458,11 +2847,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="598762984"/>
-        <c:axId val="598759768"/>
+        <c:axId val="601511688"/>
+        <c:axId val="601697416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="598762984"/>
+        <c:axId val="601511688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598759768"/>
+        <c:crossAx val="601697416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598759768"/>
+        <c:axId val="601697416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598762984"/>
+        <c:crossAx val="601511688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2522,9 +2911,19 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.130260300142371"/>
+          <c:y val="0.0190355329949239"/>
+          <c:w val="0.844370696167592"/>
+          <c:h val="0.737933836950584"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3052,20 +3451,30 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601245896"/>
-        <c:axId val="601248056"/>
+        <c:axId val="601474216"/>
+        <c:axId val="601479816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601245896"/>
+        <c:axId val="601474216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601248056"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601479816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3073,13 +3482,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601248056"/>
+        <c:axId val="601479816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3103,7 +3511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601245896"/>
+        <c:crossAx val="601474216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3138,7 +3546,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3672,20 +4080,30 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="683205064"/>
-        <c:axId val="683333288"/>
+        <c:axId val="601555000"/>
+        <c:axId val="601535208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="683205064"/>
+        <c:axId val="601555000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683333288"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601535208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3693,13 +4111,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683333288"/>
+        <c:axId val="601535208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3723,11 +4140,317 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683205064"/>
+        <c:crossAx val="601555000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time taken by ADFD+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Results!$I$19:$K$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pro1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pro2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pro3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pro4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pro5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pro6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$L$19:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time taken by Randoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Results!$I$19:$K$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Point</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Block</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Strip</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>One</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Two</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pro1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pro2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pro3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pro4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pro5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pro6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$M$19:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>178.9666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.7666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.9333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.46666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.93333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="634239464"/>
+        <c:axId val="633985160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634239464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633985160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633985160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="634239464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3930,15 +4653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1493520</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3970,8 +4693,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -3987,6 +4710,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4317,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AA45"/>
+  <dimension ref="C1:AJ72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4329,30 +5117,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:27">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3"/>
+      <c r="U1" s="8"/>
+      <c r="Z1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="4:27">
       <c r="D2" s="1" t="s">
@@ -5642,8 +6430,8 @@
         <f t="shared" si="0"/>
         <v>12619</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="1">
         <f>MIN(L3:L33)</f>
         <v>2</v>
@@ -5707,8 +6495,8 @@
         <f t="shared" si="3"/>
         <v>15008.5</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="1">
         <f t="shared" ref="L35:M35" si="4">QUARTILE(L3:L32,1)</f>
         <v>3</v>
@@ -5772,8 +6560,8 @@
         <f t="shared" si="7"/>
         <v>15825</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="1">
         <f t="shared" ref="L36:M36" si="8">MEDIAN(L3:L32)</f>
         <v>3</v>
@@ -5837,8 +6625,8 @@
         <f t="shared" si="11"/>
         <v>16647.5</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="1">
         <f t="shared" ref="L37:M37" si="12">QUARTILE(L3:L32,3)</f>
         <v>4</v>
@@ -5902,8 +6690,8 @@
         <f t="shared" si="15"/>
         <v>17632</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="1">
         <f t="shared" ref="L38:M38" si="16">MAX(L3:L32)</f>
         <v>5</v>
@@ -6024,7 +6812,7 @@
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ref="P41:U41" si="21">P34</f>
@@ -6114,7 +6902,7 @@
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" si="26"/>
@@ -6128,7 +6916,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" ref="Z42:AA42" si="27">Z35-Z34</f>
@@ -6180,7 +6968,7 @@
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" ref="P43:U43" si="30">P36-P35</f>
@@ -6192,7 +6980,7 @@
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="30"/>
@@ -6206,7 +6994,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" ref="Z43:AA43" si="31">Z36-Z35</f>
@@ -6258,7 +7046,7 @@
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ref="P44:U44" si="34">P37-P36</f>
@@ -6270,7 +7058,7 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="34"/>
@@ -6284,7 +7072,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" ref="Z44:AA44" si="35">Z37-Z36</f>
@@ -6336,7 +7124,7 @@
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ref="P45:U45" si="38">P38-P37</f>
@@ -6348,7 +7136,7 @@
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="38"/>
@@ -6362,7 +7150,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" ref="Z45:AA45" si="39">Z38-Z37</f>
@@ -6371,6 +7159,143 @@
       <c r="AA45" s="1">
         <f t="shared" si="39"/>
         <v>984.5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:36">
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(D3:D32)</f>
+        <v>6.6</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:AJ72" si="40">AVERAGE(E3:E32)</f>
+        <v>83.466666666666669</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="40"/>
+        <v>6578.2666666666664</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="40"/>
+        <v>15705.533333333333</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="40"/>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="40"/>
+        <v>77.8</v>
+      </c>
+      <c r="N72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="40"/>
+        <v>4741.7</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="40"/>
+        <v>14724.533333333333</v>
+      </c>
+      <c r="R72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="40"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="40"/>
+        <v>70.933333333333337</v>
+      </c>
+      <c r="V72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="40"/>
+        <v>3981.0333333333333</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="40"/>
+        <v>14513.533333333333</v>
+      </c>
+      <c r="AB72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ72" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -6398,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="M35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O46" activeCellId="5" sqref="E46 G46 I46 K46 M46 O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6414,256 +7339,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>182</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>170</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>152</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>80</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>74</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>177</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>157</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>148</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>90</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>67</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>175</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>180</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>168</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>82</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>90</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>180</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>178</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>145</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>82</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>67</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>192</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>179</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>167</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>9</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>86</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>89</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>3</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>82</v>
       </c>
     </row>
@@ -6671,116 +7596,116 @@
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>173</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>174</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>145</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>11</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>81</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>84</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>166</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>171</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>159</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>6</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>77</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>81</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>175</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>160</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>148</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>7</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>92</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>70</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>63</v>
       </c>
     </row>
@@ -6788,78 +7713,78 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>180</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>175</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>163</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>8</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>90</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>85</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>2</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>178</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>172</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>160</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>87</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>82</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>75</v>
       </c>
     </row>
@@ -6870,154 +7795,154 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>186</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>155</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>176</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>84</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>65</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>181</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>185</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>173</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>7</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>79</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>5</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>95</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>170</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>171</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>159</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>83</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>4</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>81</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>1</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>183</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>163</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>151</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>8</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>81</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>73</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>66</v>
       </c>
     </row>
@@ -7025,154 +7950,154 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>190</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>171</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>158</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>9</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>82</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>3</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>80</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>3</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>184</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>174</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>162</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>80</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>3</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>84</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>173</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>162</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>150</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>6</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>81</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>72</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>185</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>164</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>140</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>7</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>78</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>3</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>62</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>55</v>
       </c>
     </row>
@@ -7180,464 +8105,464 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>171</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>173</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>161</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>93</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>3</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>83</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>172</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>175</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>144</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>5</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>86</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>3</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>98</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>3</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>177</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>161</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>139</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>7</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>85</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>3</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>61</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>2</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>180</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>162</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>150</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>4</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>82</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>3</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>72</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>2</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>174</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>166</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>154</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>5</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>74</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>4</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>76</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>186</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>169</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>157</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>6</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>81</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>79</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>191</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>159</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>4</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>147</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>7</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>83</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>5</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>69</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>4</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>168</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>173</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>161</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>5</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>84</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>3</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>83</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>174</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>157</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>162</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>8</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>85</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>4</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>67</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>3</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>178</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>162</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>2</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>150</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>6</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>86</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>3</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>72</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>2</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>181</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>4</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>157</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>166</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>7</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>89</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>5</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>88</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>2</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>187</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>188</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>2</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>163</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>8</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>81</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>3</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>85</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>2</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="3:15">
       <c r="C34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <f>MIN(D3:D32)</f>
@@ -7743,7 +8668,7 @@
     </row>
     <row r="36" spans="3:15">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <f>MEDIAN(D3:D32)</f>
@@ -7849,7 +8774,7 @@
     </row>
     <row r="38" spans="3:15">
       <c r="C38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <f>MAX(D3:D32)</f>
@@ -7902,45 +8827,45 @@
     </row>
     <row r="39" spans="3:15" s="1" customFormat="1">
       <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="3:15">
       <c r="C40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <f>MIN(D3:D32)</f>
@@ -7993,7 +8918,7 @@
     </row>
     <row r="41" spans="3:15">
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <f>D35-D34</f>
@@ -8046,7 +8971,7 @@
     </row>
     <row r="42" spans="3:15">
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <f>D36-D35</f>
@@ -8099,7 +9024,7 @@
     </row>
     <row r="43" spans="3:15">
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <f>D37-D36</f>
@@ -8152,7 +9077,7 @@
     </row>
     <row r="44" spans="3:15">
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <f>D38-D37</f>
@@ -8201,6 +9126,59 @@
       <c r="O44">
         <f t="shared" si="9"/>
         <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <f>AVERAGE(D3:D32)</f>
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:O46" si="10">AVERAGE(E3:E32)</f>
+        <v>178.96666666666667</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="10"/>
+        <v>168.76666666666668</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>155.93333333333334</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="10"/>
+        <v>6.6</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="10"/>
+        <v>83.466666666666669</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>77.8</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>70.933333333333337</v>
       </c>
     </row>
     <row r="47" spans="3:15" ht="15" customHeight="1"/>
@@ -8226,10 +9204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="O48" activeCellId="5" sqref="E48 G48 I48 K48 M48 O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8240,294 +9218,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>7375</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>11700</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>3768</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>9935</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1906</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>10414</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>9077</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>15811</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>1450</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>15868</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>2906</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>15657</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>6592</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>10170</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3817</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>8695</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3273</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>10296</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>7533</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>14011</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>4817</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>15750</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>4273</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>15539</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5421</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>13521</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5632</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>10340</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5088</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>9355</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>6049</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>17632</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>6632</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>14809</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>6088</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>14598</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5471</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>9317</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2674</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>10395</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2130</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>9410</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>6471</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>12619</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>3674</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>14864</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>3130</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>14653</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>6045</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>11310</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2031</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>10427</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1487</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>9442</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>7045</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>15421</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>3031</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>14896</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>2487</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>14685</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>7212</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>11690</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3741</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>11352</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>3197</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>10367</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>8212</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>15801</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>4741</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>15821</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>4197</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>15610</v>
       </c>
     </row>
@@ -8535,920 +9513,920 @@
       <c r="B9">
         <v>5243</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7461</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>9610</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>2969</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>8804</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>2536</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>7819</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>8461</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>13721</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>3969</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>13273</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>1875</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>13062</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>5733</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>13010</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>3362</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>9831</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2818</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>8846</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>6733</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>17121</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>4362</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>14300</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>3818</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>14089</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>5455</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>10291</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>4817</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>10389</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>3721</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>9404</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>6455</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>14402</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>5817</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>14858</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>4721</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>14647</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>6871</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>11166</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>3390</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>10256</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>3456</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>11046</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>7871</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>15277</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>5000</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>16500</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4456</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>16289</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>5906</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>11580</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1418</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>10782</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>2875</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>9797</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>7901</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>15691</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>2418</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <v>15251</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>1874</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>15040</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4653</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>13370</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>3829</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>11250</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>3285</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>10265</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>5012</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>17481</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>4829</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>15719</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>4285</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>15508</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>5290</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>12121</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>2341</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>11040</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1797</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>10055</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>6290</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>16232</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>3341</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>15509</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>2797</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>15298</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>5031</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>12589</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>3619</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>7971</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>3075</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>6986</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>6031</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>16700</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>4619</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>12440</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>4075</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>12229</v>
       </c>
     </row>
     <row r="17" spans="4:15">
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>6333</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>12379</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>3360</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>9369</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>2816</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>8384</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>7333</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>16490</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>4360</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>13838</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>3816</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>13627</v>
       </c>
     </row>
     <row r="18" spans="4:15">
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>6842</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>8598</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>4662</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>10780</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>3288</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>9795</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>7842</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>13421</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>5662</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>15249</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>4288</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>15038</v>
       </c>
     </row>
     <row r="19" spans="4:15">
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>5241</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>12431</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>5171</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>11652</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>4627</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>11177</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>5801</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>14819</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>6171</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>16631</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>5627</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>16420</v>
       </c>
     </row>
     <row r="20" spans="4:15">
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>5439</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>12119</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>3130</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>6065</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2586</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>10052</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>6439</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>16230</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>4130</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>15506</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>3586</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>15295</v>
       </c>
     </row>
     <row r="21" spans="4:15">
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2121</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>13501</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1475</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>9469</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>3224</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>8484</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>3121</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>17612</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>4768</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <v>13938</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>4224</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>13727</v>
       </c>
     </row>
     <row r="22" spans="4:15">
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5488</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>12376</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>4901</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>10361</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>1031</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>9376</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>6488</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>16487</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>7406</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <v>14830</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>2031</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>14619</v>
       </c>
     </row>
     <row r="23" spans="4:15">
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>7303</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>10808</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>4862</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>8561</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>3369</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>7576</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>8303</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>14919</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>5862</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <v>13030</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>5318</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>12819</v>
       </c>
     </row>
     <row r="24" spans="4:15">
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>4345</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>12738</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>3378</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>12182</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>2834</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>11197</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>5345</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>16849</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>4378</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>16651</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>3834</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>16440</v>
       </c>
     </row>
     <row r="25" spans="4:15">
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>3702</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>12620</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>3800</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>7169</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>3256</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>6184</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>4702</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>16731</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>4800</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <v>11638</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>4256</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>11427</v>
       </c>
     </row>
     <row r="26" spans="4:15">
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>5412</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>11679</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>4374</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>11399</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>3830</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>8986</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>6412</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>15790</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>5374</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <v>14440</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>4830</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>14229</v>
       </c>
     </row>
     <row r="27" spans="4:15">
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>4640</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>11734</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>5541</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>10351</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>4997</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>9366</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>5640</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>15845</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>6541</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>14820</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>5997</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>14609</v>
       </c>
     </row>
     <row r="28" spans="4:15">
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>5033</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>11766</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>4381</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>8271</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>4651</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>7286</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>6033</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>15877</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <v>6790</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="5">
         <v>12740</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>6246</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>12529</v>
       </c>
     </row>
     <row r="29" spans="4:15">
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>5689</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>12691</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>4062</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>11671</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>3518</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>10686</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>7488</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>16802</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>5062</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <v>16140</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>4518</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>15929</v>
       </c>
     </row>
     <row r="30" spans="4:15">
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>5671</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>10143</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>4000</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>8952</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>3456</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>7967</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>6671</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>14254</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>5000</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="5">
         <v>13421</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>4456</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>13210</v>
       </c>
     </row>
     <row r="31" spans="4:15">
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>3089</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>9932</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1418</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>9827</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>1233</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>8842</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>4089</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>15281</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="5">
         <v>2418</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="5">
         <v>14296</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>2233</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>14085</v>
       </c>
     </row>
     <row r="32" spans="4:15">
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>5500</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>11728</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>3829</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>10241</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>3659</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>9256</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>15839</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>4829</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>14710</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>5189</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>14499</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <f>MIN(D3:D32)</f>
@@ -9554,7 +10532,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <f>MEDIAN(D3:D32)</f>
@@ -9660,7 +10638,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="C38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <f>MAX(D3:D32)</f>
@@ -9716,45 +10694,45 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="C40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <f>MIN(D3:D32)</f>
@@ -9807,7 +10785,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <f>D35-D34</f>
@@ -9860,7 +10838,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <f>D36-D35</f>
@@ -9913,7 +10891,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <f>D37-D36</f>
@@ -9966,7 +10944,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <f>D38-D37</f>
@@ -10018,14 +10996,67 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1"/>
+    <row r="48" spans="1:15">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(D3:D32)</f>
+        <v>5545.4666666666662</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:O48" si="10">AVERAGE(E3:E32)</f>
+        <v>11622.933333333332</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="10"/>
+        <v>3658.4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="10"/>
+        <v>9926.2333333333336</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="10"/>
+        <v>3100.6333333333332</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>9270.5333333333328</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>6578.2666666666664</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="10"/>
+        <v>15705.533333333333</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="10"/>
+        <v>4741.7</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>14724.533333333333</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>4047.7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>14513.533333333333</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10036,4 +11067,192 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I18:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="9:15">
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15">
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="10">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="M19" s="11">
+        <v>178.96666666666667</v>
+      </c>
+      <c r="N19" s="11">
+        <v>5545.4666666666662</v>
+      </c>
+      <c r="O19" s="11">
+        <v>11622.933333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15">
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="10">
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="M20" s="11">
+        <v>168.76666666666668</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3658.4</v>
+      </c>
+      <c r="O20" s="11">
+        <v>9926.2333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15">
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="10">
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="M21" s="11">
+        <v>155.93333333333334</v>
+      </c>
+      <c r="N21" s="11">
+        <v>3100.6333333333332</v>
+      </c>
+      <c r="O21" s="11">
+        <v>9270.5333333333328</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15">
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="M22" s="11">
+        <v>83.466666666666669</v>
+      </c>
+      <c r="N22" s="11">
+        <v>6578.2666666666664</v>
+      </c>
+      <c r="O22" s="11">
+        <v>15705.533333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15">
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="10">
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="M23" s="11">
+        <v>77.8</v>
+      </c>
+      <c r="N23" s="11">
+        <v>4741.7</v>
+      </c>
+      <c r="O23" s="11">
+        <v>14724.533333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15">
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M24" s="11">
+        <v>70.933333333333337</v>
+      </c>
+      <c r="N24" s="11">
+        <v>4047.7</v>
+      </c>
+      <c r="O24" s="11">
+        <v>14513.533333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
+++ b/papers/ADFDPlus/ADFD+ vs Randoop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
   <si>
     <t>ADFD+</t>
   </si>
@@ -189,21 +189,6 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Strip</t>
-  </si>
-  <si>
-    <t>Average time taken by Randoop</t>
-  </si>
-  <si>
-    <t>Average Test cases by Randoop</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -216,10 +201,25 @@
     <t>one dim block time</t>
   </si>
   <si>
-    <t>Average test cases by ADFD+</t>
+    <t>Average time taken by</t>
   </si>
   <si>
-    <t>Average time taken by ADFD+</t>
+    <t xml:space="preserve">Average time taken by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average test cases by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Test cases by </t>
+  </si>
+  <si>
+    <t>Point failure</t>
+  </si>
+  <si>
+    <t>Block failure</t>
+  </si>
+  <si>
+    <t>Strip failure</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -512,14 +512,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -981,11 +981,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601307512"/>
-        <c:axId val="138156504"/>
+        <c:axId val="618399864"/>
+        <c:axId val="618403064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601307512"/>
+        <c:axId val="618399864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138156504"/>
+        <c:crossAx val="618403064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138156504"/>
+        <c:axId val="618403064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601307512"/>
+        <c:crossAx val="618399864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,11 +1043,22 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.241354800799154"/>
+          <c:y val="0.0561056105610561"/>
+          <c:w val="0.677261957926901"/>
+          <c:h val="0.735842103895429"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1058,78 +1069,37 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average test cases by ADFD+</c:v>
+                  <c:v>ADFD+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Results!$I$19:$K$24</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Results!$I$19:$I$24</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pro1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pro2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Pro3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Pro4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Pro5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Pro6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Pro1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pro2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pro3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pro4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pro5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pro6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1158,7 +1128,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1169,78 +1138,37 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Test cases by Randoop</c:v>
+                  <c:v>Randoop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Results!$I$19:$K$24</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Results!$I$19:$I$24</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pro1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pro2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Pro3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Pro4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Pro5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Pro6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Pro1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pro2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pro3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pro4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pro5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pro6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1269,7 +1197,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1279,13 +1206,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="734380472"/>
-        <c:axId val="724548664"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="614384888"/>
+        <c:axId val="614387864"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="734380472"/>
+        <c:axId val="614384888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="724548664"/>
+        <c:crossAx val="614387864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,25 +1228,64 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="724548664"/>
+        <c:axId val="614387864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numbe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>r of Test Cases</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.063931447128431"/>
+              <c:y val="0.28324731685767"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="734380472"/>
+        <c:crossAx val="614384888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.346824814271097"/>
+          <c:y val="0.10341311296484"/>
+          <c:w val="0.156815694648338"/>
+          <c:h val="0.132560484394896"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1605,11 +1570,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="720425368"/>
-        <c:axId val="601489240"/>
+        <c:axId val="614044728"/>
+        <c:axId val="614047928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="720425368"/>
+        <c:axId val="614044728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601489240"/>
+        <c:crossAx val="614047928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601489240"/>
+        <c:axId val="614047928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720425368"/>
+        <c:crossAx val="614044728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,11 +1888,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601664392"/>
-        <c:axId val="601666056"/>
+        <c:axId val="614084536"/>
+        <c:axId val="614087736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601664392"/>
+        <c:axId val="614084536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601666056"/>
+        <c:crossAx val="614087736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1944,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601666056"/>
+        <c:axId val="614087736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601664392"/>
+        <c:crossAx val="614084536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,11 +2196,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601390296"/>
-        <c:axId val="601338248"/>
+        <c:axId val="614125128"/>
+        <c:axId val="614128328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601390296"/>
+        <c:axId val="614125128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601338248"/>
+        <c:crossAx val="614128328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2252,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601338248"/>
+        <c:axId val="614128328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601390296"/>
+        <c:crossAx val="614125128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,11 +2504,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="720480840"/>
-        <c:axId val="720464456"/>
+        <c:axId val="614166216"/>
+        <c:axId val="614169416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="720480840"/>
+        <c:axId val="614166216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720464456"/>
+        <c:crossAx val="614169416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2560,7 +2525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720464456"/>
+        <c:axId val="614169416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720480840"/>
+        <c:crossAx val="614166216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,11 +2812,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601511688"/>
-        <c:axId val="601697416"/>
+        <c:axId val="614207528"/>
+        <c:axId val="614210728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601511688"/>
+        <c:axId val="614207528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601697416"/>
+        <c:crossAx val="614210728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2868,7 +2833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601697416"/>
+        <c:axId val="614210728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601511688"/>
+        <c:crossAx val="614207528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3451,11 +3416,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601474216"/>
-        <c:axId val="601479816"/>
+        <c:axId val="614224888"/>
+        <c:axId val="614228120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601474216"/>
+        <c:axId val="614224888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601479816"/>
+        <c:crossAx val="614228120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601479816"/>
+        <c:axId val="614228120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,14 +3469,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601474216"/>
+        <c:crossAx val="614224888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4080,11 +4044,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601555000"/>
-        <c:axId val="601535208"/>
+        <c:axId val="614311368"/>
+        <c:axId val="614314536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601555000"/>
+        <c:axId val="614311368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,7 +4067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601535208"/>
+        <c:crossAx val="614314536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4111,7 +4075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601535208"/>
+        <c:axId val="614314536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,14 +4097,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601555000"/>
+        <c:crossAx val="614311368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4173,9 +4136,20 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.198706441068235"/>
+          <c:y val="0.0489252750690932"/>
+          <c:w val="0.733920603674541"/>
+          <c:h val="0.733193535018649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4186,78 +4160,37 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average time taken by ADFD+</c:v>
+                  <c:v>ADFD+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Results!$I$19:$K$24</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Results!$I$19:$I$24</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pro1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pro2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Pro3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Pro4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Pro5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Pro6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Pro1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pro2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pro3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pro4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pro5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pro6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4286,7 +4219,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4297,78 +4229,37 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average time taken by Randoop</c:v>
+                  <c:v>Randoop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Results!$I$19:$K$24</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Results!$I$19:$I$24</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Point</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Block</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Strip</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>One</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Two</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Pro1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Pro2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Pro3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Pro4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Pro5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Pro6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Pro1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pro2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pro3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pro4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pro5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pro6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4397,7 +4288,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4407,13 +4297,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="634239464"/>
-        <c:axId val="633985160"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="614350520"/>
+        <c:axId val="614353496"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="634239464"/>
+        <c:axId val="614350520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="633985160"/>
+        <c:crossAx val="614353496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4430,25 +4319,64 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="633985160"/>
+        <c:axId val="614353496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0439392693406797"/>
+              <c:y val="0.336051780779058"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634239464"/>
+        <c:crossAx val="614350520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.721457823646718"/>
+          <c:y val="0.0866616259060333"/>
+          <c:w val="0.144941921424313"/>
+          <c:h val="0.132999426396204"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4722,16 +4650,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4752,16 +4680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5117,30 +5045,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:27">
-      <c r="D1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="L1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="D1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="Q1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="U1" s="10"/>
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="8"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="4:27">
       <c r="D2" s="1" t="s">
@@ -6430,8 +6358,8 @@
         <f t="shared" si="0"/>
         <v>12619</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="1">
         <f>MIN(L3:L33)</f>
         <v>2</v>
@@ -6495,8 +6423,8 @@
         <f t="shared" si="3"/>
         <v>15008.5</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="1">
         <f t="shared" ref="L35:M35" si="4">QUARTILE(L3:L32,1)</f>
         <v>3</v>
@@ -6560,8 +6488,8 @@
         <f t="shared" si="7"/>
         <v>15825</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
       <c r="L36" s="1">
         <f t="shared" ref="L36:M36" si="8">MEDIAN(L3:L32)</f>
         <v>3</v>
@@ -6625,8 +6553,8 @@
         <f t="shared" si="11"/>
         <v>16647.5</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="1">
         <f t="shared" ref="L37:M37" si="12">QUARTILE(L3:L32,3)</f>
         <v>4</v>
@@ -6690,8 +6618,8 @@
         <f t="shared" si="15"/>
         <v>17632</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="1">
         <f t="shared" ref="L38:M38" si="16">MAX(L3:L32)</f>
         <v>5</v>
@@ -7163,7 +7091,7 @@
     </row>
     <row r="72" spans="3:36">
       <c r="C72" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D72">
         <f>AVERAGE(D3:D32)</f>
@@ -7339,30 +7267,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="2:15">
       <c r="D2" s="4" t="s">
@@ -9130,7 +9058,7 @@
     </row>
     <row r="46" spans="3:15">
       <c r="C46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <f>AVERAGE(D3:D32)</f>
@@ -9218,30 +9146,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="2:15">
       <c r="D2" s="4" t="s">
@@ -10998,7 +10926,7 @@
     <row r="47" spans="1:15" ht="15" customHeight="1"/>
     <row r="48" spans="1:15">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D3:D32)</f>
@@ -11071,10 +10999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I18:O24"/>
+  <dimension ref="I17:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11084,6 +11012,20 @@
     <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="17" spans="9:15">
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="18" spans="9:15">
       <c r="I18" t="s">
         <v>44</v>
@@ -11095,16 +11037,16 @@
         <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="9:15">
@@ -11115,18 +11057,18 @@
         <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="10">
+        <v>63</v>
+      </c>
+      <c r="L19" s="8">
         <v>3.9666666666666668</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <v>178.96666666666667</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <v>5545.4666666666662</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="9">
         <v>11622.933333333332</v>
       </c>
     </row>
@@ -11138,18 +11080,18 @@
         <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="10">
+        <v>63</v>
+      </c>
+      <c r="L20" s="8">
         <v>2.2666666666666666</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>168.76666666666668</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="9">
         <v>3658.4</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="9">
         <v>9926.2333333333336</v>
       </c>
     </row>
@@ -11161,18 +11103,18 @@
         <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="10">
+        <v>64</v>
+      </c>
+      <c r="L21" s="8">
         <v>2.1333333333333333</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="9">
         <v>155.93333333333334</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <v>3100.6333333333332</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <v>9270.5333333333328</v>
       </c>
     </row>
@@ -11184,18 +11126,18 @@
         <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="10">
+        <v>64</v>
+      </c>
+      <c r="L22" s="8">
         <v>6.6</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="9">
         <v>83.466666666666669</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <v>6578.2666666666664</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <v>15705.533333333333</v>
       </c>
     </row>
@@ -11207,18 +11149,18 @@
         <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="10">
+        <v>65</v>
+      </c>
+      <c r="L23" s="8">
         <v>3.2666666666666666</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="9">
         <v>77.8</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <v>4741.7</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <v>14724.533333333333</v>
       </c>
     </row>
@@ -11230,18 +11172,18 @@
         <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="10">
+        <v>65</v>
+      </c>
+      <c r="L24" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="9">
         <v>70.933333333333337</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <v>4047.7</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="9">
         <v>14513.533333333333</v>
       </c>
     </row>
